--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2397946.738483409</v>
+        <v>2502180.446876856</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12502432.03437992</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9244700.033388078</v>
+        <v>9253612.924639683</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>75.49088380154294</v>
       </c>
       <c r="V2" t="n">
-        <v>325.6752077239884</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -820,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>29.74270504711193</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>49.44613120862126</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>21.27902055891067</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>87.61309309741597</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -953,10 +955,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1060,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4054212696143</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1107,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>17.43545665624331</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>5.400304892655031</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>146.5019282766015</v>
       </c>
     </row>
     <row r="9">
@@ -1294,16 +1296,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>65.59378492430392</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>32.49791859588824</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1537,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>24.27150084979029</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>166.8663745188117</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>217.0099009525713</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>143.2091541404067</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>34.2105855891487</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>26.13627195705896</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2245,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,16 +2292,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>136.4207955213659</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>147.0536681065582</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2315,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144412</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,22 +2371,22 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576182</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="24">
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>28.23631843387907</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187871</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>60.42721558713031</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2767,16 +2769,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>185.0663491738889</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2843,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>1.594095449514225</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>99.21841339140089</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,13 +3243,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>75.00788511618059</v>
+        <v>106.997776813539</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3317,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>53.07327741456131</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>1.632620083626864</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>115.2963218977551</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3718,16 +3720,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>45.16086499484859</v>
       </c>
     </row>
     <row r="41">
@@ -3791,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>18.16423677622371</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>34.56584948763671</v>
       </c>
     </row>
     <row r="44">
@@ -4144,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>35.9987177458277</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>247.6310136071098</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1530.167618932618</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="C2" t="n">
-        <v>1530.167618932618</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D2" t="n">
-        <v>1171.901920325867</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>786.1136677276231</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>375.1277629380156</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="V2" t="n">
-        <v>2680.372549233631</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="W2" t="n">
-        <v>2680.372549233631</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="X2" t="n">
-        <v>2306.906790972551</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="Y2" t="n">
-        <v>1916.76745899674</v>
+        <v>2361.386702945269</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2055.93142755395</v>
+        <v>666.9516006271326</v>
       </c>
       <c r="C4" t="n">
-        <v>1886.995244626044</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D4" t="n">
-        <v>1856.952108214819</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E4" t="n">
-        <v>1709.039014632426</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>1562.149067134516</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>1562.149067134516</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.49300379717</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396719</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022997</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366699</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193525</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>3044.089480193525</v>
+        <v>1586.500532995082</v>
       </c>
       <c r="U4" t="n">
-        <v>2754.986613319169</v>
+        <v>1297.38219549892</v>
       </c>
       <c r="V4" t="n">
-        <v>2754.986613319169</v>
+        <v>1297.38219549892</v>
       </c>
       <c r="W4" t="n">
-        <v>2465.569443282208</v>
+        <v>1297.38219549892</v>
       </c>
       <c r="X4" t="n">
-        <v>2237.57989238419</v>
+        <v>1069.392644600902</v>
       </c>
       <c r="Y4" t="n">
-        <v>2237.57989238419</v>
+        <v>848.6000654573724</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1274.53911114974</v>
+        <v>1639.433183287319</v>
       </c>
       <c r="C5" t="n">
-        <v>905.5765942093287</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>905.5765942093287</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>905.5765942093287</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>494.5906894197212</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4565,13 +4567,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4601,16 +4603,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189674</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.138951213862</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>657.620154033273</v>
+        <v>460.171619808316</v>
       </c>
       <c r="C7" t="n">
-        <v>657.620154033273</v>
+        <v>460.171619808316</v>
       </c>
       <c r="D7" t="n">
-        <v>507.5035146209373</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4753,22 +4755,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1356.675339798491</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1067.25816976153</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>839.2686188635128</v>
+        <v>862.6126637820859</v>
       </c>
       <c r="Y7" t="n">
-        <v>839.2686188635128</v>
+        <v>641.8200846385557</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.584018541385</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4829,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3320.150968182247</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3320.150968182247</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3066.620491456084</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2735.557604112513</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2382.788948842398</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="X8" t="n">
-        <v>2009.323190581319</v>
+        <v>2510.786507531616</v>
       </c>
       <c r="Y8" t="n">
-        <v>1619.183858605507</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>847.3980557622425</v>
+        <v>676.4685272225361</v>
       </c>
       <c r="C10" t="n">
-        <v>678.4618728343356</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D10" t="n">
-        <v>528.3452334219999</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396067</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
         <v>212.7293032143257</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1861.038199680105</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1669.352315506931</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1669.352315506931</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1669.352315506931</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1414.667827301044</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621296</v>
+        <v>1125.250657264084</v>
       </c>
       <c r="X10" t="n">
-        <v>880.2242361621296</v>
+        <v>897.2611063660662</v>
       </c>
       <c r="Y10" t="n">
-        <v>847.3980557622425</v>
+        <v>676.4685272225361</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5023,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5033,28 +5035,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5118,25 +5120,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.841029837709</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C13" t="n">
-        <v>782.841029837709</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2172.545877962526</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1883.470651306724</v>
       </c>
       <c r="V13" t="n">
-        <v>1702.688794746457</v>
+        <v>1628.786163100837</v>
       </c>
       <c r="W13" t="n">
-        <v>1413.271624709496</v>
+        <v>1339.368993063877</v>
       </c>
       <c r="X13" t="n">
-        <v>1185.282073811479</v>
+        <v>1111.379442165859</v>
       </c>
       <c r="Y13" t="n">
-        <v>964.4894946679487</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,52 +5272,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7772127656159</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>782.841029837709</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V16" t="n">
-        <v>1469.183933700594</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W16" t="n">
-        <v>1179.766763663633</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X16" t="n">
-        <v>951.7772127656159</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y16" t="n">
-        <v>951.7772127656159</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5501,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,31 +5533,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>2565.513299557012</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L18" t="n">
-        <v>3051.06265415652</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M18" t="n">
-        <v>3051.06265415652</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N18" t="n">
-        <v>3678.660617711127</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>4230.570347950414</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>4654.193497445482</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>210.4595134598044</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2420.562808876161</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2420.562808876161</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2420.562808876161</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>2131.487582220359</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1876.803094014472</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1587.385923977512</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5744,10 +5746,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5765,34 +5767,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.119922845744</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1652.717886400351</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O21" t="n">
-        <v>2204.627616639638</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3195.647281583948</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C22" t="n">
-        <v>3026.711098656041</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D22" t="n">
-        <v>2876.594459243706</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>4507.978318053498</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>4370.179534698583</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>4115.495046492696</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>3826.077876455735</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X22" t="n">
-        <v>3598.088325557718</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y22" t="n">
-        <v>3377.295746414188</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362668</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6017,22 +6019,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>904.4616873845483</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M24" t="n">
-        <v>1501.8401750111</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>264.0500279773688</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>264.0500279773688</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,16 +6214,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6239,22 +6241,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>2565.513299557012</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L27" t="n">
-        <v>3060.838905772771</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M27" t="n">
-        <v>3658.217393399323</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>3658.217393399323</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>4210.12712363861</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>4633.750273133678</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2939.372134388645</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>2770.435951460739</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>2770.435951460739</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>2622.522857878345</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>2622.522857878345</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.25592267304</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467153</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430193</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6458,16 +6460,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2945.341332862259</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C31" t="n">
-        <v>2776.405149934352</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D31" t="n">
-        <v>2626.288510522017</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>2626.288510522017</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>2479.398563024106</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3455.19996817779</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X31" t="n">
-        <v>3227.210417279773</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y31" t="n">
-        <v>3126.989797692499</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6688,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2565.513299557012</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>3060.83890577277</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>3278.063798229818</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>3905.661761784424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>4457.571492023711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3260.450525729772</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>3091.514342801865</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>2941.39770338953</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>2793.484609807137</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>4145.565608807447</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="V34" t="n">
-        <v>3890.88112060156</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W34" t="n">
-        <v>3890.88112060156</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X34" t="n">
-        <v>3662.891569703542</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y34" t="n">
-        <v>3442.098990560012</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6926,7 +6928,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>868.6673633290469</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C37" t="n">
-        <v>699.73118040114</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6145409888043</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2393.353712454441</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2210.498878109345</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1990.897413132287</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1701.822186476484</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1447.137698270597</v>
       </c>
       <c r="W37" t="n">
-        <v>1499.097958200834</v>
+        <v>1157.720528233637</v>
       </c>
       <c r="X37" t="n">
-        <v>1271.108407302817</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="Y37" t="n">
-        <v>1050.315828159287</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>904.4616873845483</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1501.8401750111</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2263.456448622809</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2043.85498364575</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1754.779756989948</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1754.779756989948</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1237.37303605497</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y40" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="41">
@@ -7406,31 +7408,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,10 +7447,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
         <v>3094.515198591809</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2565.513299557012</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>2884.660124662805</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>3482.038612289356</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N42" t="n">
-        <v>3482.038612289356</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>4033.948342528643</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>802.9288273958734</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C43" t="n">
-        <v>633.9926444679666</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D43" t="n">
-        <v>483.8760050556308</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E43" t="n">
-        <v>335.9629114732377</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>335.9629114732377</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.5772922261132</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="44">
@@ -7625,61 +7627,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N45" t="n">
-        <v>1702.079034721979</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O45" t="n">
-        <v>2253.988764961266</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3195.647281583948</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C46" t="n">
-        <v>3026.711098656041</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D46" t="n">
-        <v>2876.594459243706</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>2728.681365661313</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>4440.9326143059</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>4151.857387650098</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>4115.495046492696</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W46" t="n">
-        <v>3826.077876455735</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X46" t="n">
-        <v>3598.088325557718</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y46" t="n">
-        <v>3377.295746414188</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>211.0329012241561</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23464,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>193.133949477498</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>85.27126880501626</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23704,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>35.12774237125666</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>75.37549921168812</v>
       </c>
     </row>
     <row r="17">
@@ -23896,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>40.23897475306271</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24133,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,16 +24180,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>149.7636788678783</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>139.4693302300328</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>40.64330621514819</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>105.0969227051385</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24655,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>101.1181252153552</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>284.9289028870768</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>119.3662399606939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>211.1765892730635</v>
+        <v>179.1866975757051</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>13.30196929556038</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>284.8903782529641</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>65.72996410388944</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>173.4237883572462</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>147.3599015160451</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>184.0188038644581</v>
       </c>
     </row>
     <row r="44">
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>216.1389255780003</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>38.89198472948121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>809664.8850928613</v>
+        <v>818577.7763444674</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>796117.0941729409</v>
+        <v>796117.0941729408</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>796117.0941729408</v>
+        <v>796117.0941729409</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>796117.0941729409</v>
+        <v>796117.0941729408</v>
       </c>
     </row>
     <row r="9">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>796117.0941729409</v>
+        <v>796117.0941729408</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448204</v>
+      </c>
+      <c r="C2" t="n">
         <v>636307.3716448194</v>
-      </c>
-      <c r="C2" t="n">
-        <v>636307.37164482</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448195</v>
@@ -26323,37 +26325,37 @@
         <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.614759755</v>
       </c>
       <c r="I2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="J2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="J2" t="n">
-        <v>625538.614759755</v>
-      </c>
       <c r="K2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="O2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="O2" t="n">
-        <v>625538.6147597546</v>
-      </c>
       <c r="P2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.614759755</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>203438.7416121059</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.801269209172961e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>49110.09270605448</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>137930.4104072219</v>
+      </c>
+      <c r="C4" t="n">
         <v>89134.17909312018</v>
       </c>
-      <c r="C4" t="n">
-        <v>89134.17909312015</v>
-      </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312014</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
+        <v>9947.144321768952</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9947.144321769021</v>
+      </c>
+      <c r="J4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>9947.144321768897</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9947.144321768908</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9947.144321768899</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-889505.4937372867</v>
+        <v>-709312.5947781658</v>
       </c>
       <c r="C6" t="n">
-        <v>439239.2519903065</v>
+        <v>235800.5103781999</v>
       </c>
       <c r="D6" t="n">
         <v>439239.2519903061</v>
       </c>
       <c r="E6" t="n">
-        <v>189056.4788067235</v>
+        <v>189056.4788067237</v>
       </c>
       <c r="F6" t="n">
-        <v>514468.9406140787</v>
+        <v>514468.9406140788</v>
       </c>
       <c r="G6" t="n">
         <v>514468.9406140787</v>
       </c>
       <c r="H6" t="n">
-        <v>514468.9406140792</v>
+        <v>514468.940614079</v>
       </c>
       <c r="I6" t="n">
-        <v>514468.9406140788</v>
+        <v>514468.9406140787</v>
       </c>
       <c r="J6" t="n">
-        <v>296937.7382168014</v>
+        <v>346863.7628040964</v>
       </c>
       <c r="K6" t="n">
-        <v>514468.940614079</v>
+        <v>465358.8479080244</v>
       </c>
       <c r="L6" t="n">
         <v>514468.9406140787</v>
       </c>
       <c r="M6" t="n">
-        <v>429413.9126785673</v>
+        <v>429413.9126785671</v>
       </c>
       <c r="N6" t="n">
+        <v>514468.9406140788</v>
+      </c>
+      <c r="O6" t="n">
         <v>514468.940614079</v>
       </c>
-      <c r="O6" t="n">
-        <v>514468.9406140786</v>
-      </c>
       <c r="P6" t="n">
-        <v>514468.9406140787</v>
+        <v>514468.940614079</v>
       </c>
     </row>
   </sheetData>
@@ -26704,7 +26706,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022928</v>
@@ -26799,10 +26801,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26926,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27163,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>175.5543663269191</v>
       </c>
       <c r="V2" t="n">
-        <v>2.07705074614654</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>118.8727679711004</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>171.3025647885907</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>343.9938712120969</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>323.3086325560375</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27673,10 +27675,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27780,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0285413769548768</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27827,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>208.2741987327938</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.7874568955208</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>239.7360103794521</v>
       </c>
     </row>
     <row r="9">
@@ -28014,16 +28016,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>23.33836774574341</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>186.0867347562066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28861,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29035,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.655809589057502e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29089,22 +29091,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
     </row>
     <row r="24">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>152.5685698206132</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>506.566534435233</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319848</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>297.1808238847177</v>
       </c>
       <c r="L18" t="n">
-        <v>629.0082733147301</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,10 +32554,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32567,10 +32569,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>250.3097721075164</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0899880277084</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33044,10 +33046,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>197.6412480909875</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N30" t="n">
-        <v>344.2757660550399</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33436,7 +33438,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33497,7 +33499,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,16 +33508,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>361.5531172119649</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33679,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33731,10 +33733,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,16 +33745,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>167.4835451665588</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,31 +33970,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>467.1465236515248</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>567.4250434254225</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34150,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34208,19 +34210,19 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>460.9249101897663</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34442,19 +34444,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>163.4402738502018</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>546.4575832202792</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>364.4325005132147</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875403</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="L18" t="n">
-        <v>490.4538935348559</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36139,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36200,10 +36202,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,10 +36217,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>116.3353646931862</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>481.5356082478342</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36607,7 +36609,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243171</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36692,10 +36694,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.65947400496596</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N30" t="n">
-        <v>212.9340539717066</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37084,7 +37086,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,16 +37156,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>219.4190832899467</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37324,10 +37326,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,16 +37393,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>25.34951124454049</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>328.5921438716506</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>436.0833313420891</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>322.3705304098921</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38032,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>29.46586643587157</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2502180.446876856</v>
+        <v>2498126.321117477</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>75.49088380154294</v>
+        <v>110.0088816588217</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>49.44613120862126</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>115.0952770674511</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>21.27902055891067</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>58.92805047992238</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>13.02719212039676</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>17.43545665624331</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>50.84399365306245</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>146.5019282766015</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>65.59378492430392</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>24.27150084979029</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>143.2091541404067</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>34.2105855891487</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2137,13 +2137,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2247,16 +2247,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>147.0536681065582</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.154082144412</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576182</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>245.8796921214428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>185.0663491738889</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>275.330023919727</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>1.594095449514225</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>106.997776813539</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>53.07327741456131</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>45.16086499484859</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.56584948763671</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4194,10 +4194,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>247.6310136071098</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2361.386702945269</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="C2" t="n">
-        <v>1992.424186004858</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4363,19 +4363,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2361.386702945269</v>
+        <v>2326.520038442967</v>
       </c>
       <c r="V2" t="n">
-        <v>2361.386702945269</v>
+        <v>1995.457151099396</v>
       </c>
       <c r="W2" t="n">
-        <v>2361.386702945269</v>
+        <v>1995.457151099396</v>
       </c>
       <c r="X2" t="n">
-        <v>2361.386702945269</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="Y2" t="n">
-        <v>2361.386702945269</v>
+        <v>1621.991392838317</v>
       </c>
     </row>
     <row r="3">
@@ -4397,40 +4397,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>666.9516006271326</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="C4" t="n">
-        <v>498.0154176992257</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="D4" t="n">
-        <v>347.89877828689</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9856847044969</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1586.500532995082</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1297.38219549892</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1297.38219549892</v>
+        <v>997.9976293209878</v>
       </c>
       <c r="W4" t="n">
-        <v>1297.38219549892</v>
+        <v>997.9976293209878</v>
       </c>
       <c r="X4" t="n">
-        <v>1069.392644600902</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="Y4" t="n">
-        <v>848.6000654573724</v>
+        <v>770.0080784229705</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1639.433183287319</v>
+        <v>2065.110222835254</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1696.147705894842</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1337.882007288092</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>952.0937546898474</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>541.1078499002399</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>126.0353997452364</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
@@ -4585,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.57251526313</v>
+        <v>2841.849394875187</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.433183287319</v>
+        <v>2451.710062899376</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
         <v>1212.42807043813</v>
@@ -4670,16 +4670,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4691,7 +4691,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460.171619808316</v>
+        <v>994.2880032601529</v>
       </c>
       <c r="C7" t="n">
-        <v>460.171619808316</v>
+        <v>825.351820332246</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>675.2351809199102</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>527.3220873375171</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621296</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>862.6126637820859</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>641.8200846385557</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3163.957583789738</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3163.957583789738</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>3163.957583789738</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792696</v>
+        <v>2811.188928519624</v>
       </c>
       <c r="X8" t="n">
-        <v>2510.786507531616</v>
+        <v>2437.723170258544</v>
       </c>
       <c r="Y8" t="n">
-        <v>2362.804761797675</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>676.4685272225361</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>507.5323442946291</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1861.038199680105</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1669.352315506931</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1669.352315506931</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1669.352315506931</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>1414.667827301044</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>1125.250657264084</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>897.2611063660662</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y10" t="n">
-        <v>676.4685272225361</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5038,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5120,19 +5120,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356195</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2172.545877962526</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1883.470651306724</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1628.786163100837</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1339.368993063877</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1111.379442165859</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.379442165859</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5266,31 +5266,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5320,7 +5320,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1942.37805728168</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1424.971336346702</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5503,10 +5503,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>527.7722521572603</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>377.6556127449245</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>377.6556127449245</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>377.6556127449245</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>210.4595134598044</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5740,25 +5740,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5770,31 +5770,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168593</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362668</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6019,22 +6019,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1790.525374274257</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6466,7 +6466,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>801.6605733532803</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>632.7243904253734</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1432.091168225067</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>1204.10161732705</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>983.30903818352</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,22 +6712,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908939</v>
@@ -6852,10 +6852,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1936.428221820188</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1936.428221820188</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6925,10 +6925,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>929.7309773356195</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2393.353712454441</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2210.498878109345</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1990.897413132287</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1701.822186476484</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1447.137698270597</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1157.720528233637</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>929.7309773356195</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>929.7309773356195</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7374,10 +7374,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>699.73118040114</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>699.73118040114</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888043</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>881.3796452313798</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7627,40 +7627,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7669,28 +7669,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1755.431557602304</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>240.4465442417442</v>
       </c>
       <c r="O3" t="n">
-        <v>211.0329012241561</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>193.133949477498</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.37549921168812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>106.0841272570752</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>139.4693302300328</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>40.64330621514819</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>101.1181252153552</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>10.85445046951713</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>284.9289028870768</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>179.1866975757051</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>13.30196929556038</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>173.4237883572462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>184.0188038644581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>38.89198472948121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>796117.0941729409</v>
+        <v>796117.0941729408</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>796117.0941729409</v>
+        <v>796117.0941729408</v>
       </c>
     </row>
     <row r="8">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448204</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="C2" t="n">
+        <v>636307.3716448196</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448194</v>
       </c>
-      <c r="D2" t="n">
-        <v>636307.3716448195</v>
-      </c>
       <c r="E2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597553</v>
       </c>
       <c r="F2" t="n">
         <v>625538.6147597549</v>
@@ -26331,10 +26331,10 @@
         <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
         <v>625538.6147597549</v>
@@ -26346,16 +26346,16 @@
         <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="O2" t="n">
-        <v>625538.614759755</v>
-      </c>
       <c r="P2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121059</v>
+        <v>203438.7416121063</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.801269209172961e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605448</v>
+        <v>49110.09270605457</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
+        <v>89134.17909312011</v>
+      </c>
+      <c r="D4" t="n">
         <v>89134.17909312018</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89134.17909312014</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26435,10 +26435,10 @@
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768952</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321769021</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
@@ -26447,7 +26447,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768854</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
@@ -26456,7 +26456,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-709312.5947781658</v>
+        <v>-709312.5947781659</v>
       </c>
       <c r="C6" t="n">
         <v>235800.5103781999</v>
       </c>
       <c r="D6" t="n">
-        <v>439239.2519903061</v>
+        <v>439239.2519903062</v>
       </c>
       <c r="E6" t="n">
-        <v>189056.4788067237</v>
+        <v>188709.0995523672</v>
       </c>
       <c r="F6" t="n">
-        <v>514468.9406140788</v>
+        <v>514121.5613597219</v>
       </c>
       <c r="G6" t="n">
-        <v>514468.9406140787</v>
+        <v>514121.5613597218</v>
       </c>
       <c r="H6" t="n">
-        <v>514468.940614079</v>
+        <v>514121.5613597219</v>
       </c>
       <c r="I6" t="n">
-        <v>514468.9406140787</v>
+        <v>514121.5613597219</v>
       </c>
       <c r="J6" t="n">
-        <v>346863.7628040964</v>
+        <v>346516.3835497393</v>
       </c>
       <c r="K6" t="n">
-        <v>465358.8479080244</v>
+        <v>465011.4686536673</v>
       </c>
       <c r="L6" t="n">
-        <v>514468.9406140787</v>
+        <v>514121.5613597218</v>
       </c>
       <c r="M6" t="n">
-        <v>429413.9126785671</v>
+        <v>429066.5334242099</v>
       </c>
       <c r="N6" t="n">
-        <v>514468.9406140788</v>
+        <v>514121.5613597219</v>
       </c>
       <c r="O6" t="n">
-        <v>514468.940614079</v>
+        <v>514121.5613597218</v>
       </c>
       <c r="P6" t="n">
-        <v>514468.940614079</v>
+        <v>514121.5613597218</v>
       </c>
     </row>
   </sheetData>
@@ -26706,7 +26706,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022928</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26831,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757594</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>175.5543663269191</v>
+        <v>141.0363684696403</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>171.3025647885907</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>137.0423662563769</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>343.9938712120969</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>235.6797139073981</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>239.1104512034312</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>208.2741987327938</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>153.0739764865577</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>239.7360103794521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>23.33836774574341</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.655809589057502e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29091,22 +29091,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31840,10 +31840,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>237.3557891543625</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32247,7 +32247,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
         <v>926.5868626460027</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>297.1808238847177</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32326,16 +32326,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32788,13 +32788,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33025,10 +33025,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>258.3858318060507</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,19 +33271,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33438,7 +33438,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33508,19 +33508,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33985,16 +33985,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>567.4250434254225</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,22 +34216,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>631.643643834618</v>
       </c>
       <c r="O3" t="n">
-        <v>546.4575832202792</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>94.75954470991805</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,10 +35740,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>159.3393849103587</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35974,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36436,13 +36436,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>23.94570355317166</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36673,10 +36673,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>120.5443928316917</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,19 +36919,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37086,7 +37086,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,19 +37156,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37633,16 +37633,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>436.0833313420891</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2498126.321117477</v>
+        <v>2499886.851420261</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>393.9635497021087</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>110.0088816588217</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>43.00565028820672</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>115.0952770674511</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>265.9318059937551</v>
       </c>
       <c r="H5" t="n">
-        <v>58.92805047992238</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247809</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1065,13 +1065,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>112.469933802132</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>13.02719212039676</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>242.8528437613046</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>50.84399365306245</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>82.70057996958639</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>217.0914199928484</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>23.10998325717174</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>104.4262124629293</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2137,10 +2137,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2958,10 +2958,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>275.330023919727</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>70.04554881124324</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>70.04554881124324</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>170.9457618790573</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1621.991392838317</v>
+        <v>1604.229622059685</v>
       </c>
       <c r="C2" t="n">
-        <v>1621.991392838317</v>
+        <v>1604.229622059685</v>
       </c>
       <c r="D2" t="n">
-        <v>1263.725694231566</v>
+        <v>1245.963923452935</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>860.1756708546902</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>449.1897660650827</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362822</v>
@@ -4339,43 +4339,43 @@
         <v>795.7553530872924</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U2" t="n">
-        <v>2326.520038442967</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V2" t="n">
-        <v>1995.457151099396</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="W2" t="n">
-        <v>1995.457151099396</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="X2" t="n">
-        <v>1621.991392838317</v>
+        <v>1604.229622059685</v>
       </c>
       <c r="Y2" t="n">
-        <v>1621.991392838317</v>
+        <v>1604.229622059685</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>590.2049751143504</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>884.9085321458222</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>770.0080784229705</v>
+        <v>770.9577966591559</v>
       </c>
       <c r="C4" t="n">
-        <v>770.0080784229705</v>
+        <v>602.021613731249</v>
       </c>
       <c r="D4" t="n">
-        <v>619.8914390106347</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E4" t="n">
-        <v>471.9783454282416</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
         <v>157.1019332386098</v>
@@ -4485,55 +4485,55 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1593.006069278329</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1396.37732143819</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1173.398840632926</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>1173.398840632926</v>
       </c>
       <c r="V4" t="n">
-        <v>997.9976293209878</v>
+        <v>1173.398840632926</v>
       </c>
       <c r="W4" t="n">
-        <v>997.9976293209878</v>
+        <v>1173.398840632926</v>
       </c>
       <c r="X4" t="n">
-        <v>770.0080784229705</v>
+        <v>1173.398840632926</v>
       </c>
       <c r="Y4" t="n">
-        <v>770.0080784229705</v>
+        <v>952.6062614893956</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2065.110222835254</v>
+        <v>1859.132475219475</v>
       </c>
       <c r="C5" t="n">
-        <v>1696.147705894842</v>
+        <v>1490.169958279064</v>
       </c>
       <c r="D5" t="n">
-        <v>1337.882007288092</v>
+        <v>1131.904259672313</v>
       </c>
       <c r="E5" t="n">
-        <v>952.0937546898474</v>
+        <v>746.1160070740689</v>
       </c>
       <c r="F5" t="n">
-        <v>541.1078499002399</v>
+        <v>335.1301022844613</v>
       </c>
       <c r="G5" t="n">
-        <v>126.0353997452364</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4588,31 +4588,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X5" t="n">
-        <v>2841.849394875187</v>
+        <v>2635.871647259409</v>
       </c>
       <c r="Y5" t="n">
-        <v>2451.710062899376</v>
+        <v>2245.732315283597</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601529</v>
+        <v>814.7868627196275</v>
       </c>
       <c r="C7" t="n">
-        <v>825.351820332246</v>
+        <v>645.8506797917206</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199102</v>
+        <v>495.7340403793849</v>
       </c>
       <c r="E7" t="n">
-        <v>527.3220873375171</v>
+        <v>347.8209467969917</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>347.8209467969917</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>180.1181101717107</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V7" t="n">
-        <v>1914.135768168901</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>1224.424878447885</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>996.4353275498672</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>996.4353275498672</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>2175.400891308158</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1806.438374367746</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1448.172675760996</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1062.384423162752</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>651.398518373144</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3163.957583789738</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3163.957583789738</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3163.957583789738</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2811.188928519624</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X8" t="n">
-        <v>2437.723170258544</v>
+        <v>2952.140063348092</v>
       </c>
       <c r="Y8" t="n">
-        <v>2047.583838282732</v>
+        <v>2562.00073137228</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1708.010285469454</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1453.325797263567</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1163.908627226606</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>935.919076328589</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5023,7 +5023,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5038,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5120,25 +5120,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
         <v>484.8112968429803</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,16 +5749,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5767,13 +5767,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5837,22 +5837,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5892,16 +5892,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075813</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6423,13 +6423,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6694,58 +6694,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6837,25 +6837,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,7 +6882,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
         <v>2254.869721166297</v>
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362687</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7311,22 +7311,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7833,13 +7833,13 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
         <v>1491.508541327549</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>168.743458178065</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>240.4465442417442</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>112.979237864359</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>10.85445046951749</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>149.7636788678789</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>10.85445046951713</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>75.37549921168801</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>75.37549921168801</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>46.45968844823099</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>796117.0941729408</v>
+        <v>796117.0941729409</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>796117.0941729408</v>
+        <v>796117.0941729409</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>796117.0941729408</v>
+        <v>796117.0941729409</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448193</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597553</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="F2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597545</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="M2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="O2" t="n">
         <v>625538.6147597546</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121063</v>
+        <v>203438.7416121059</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605457</v>
+        <v>49110.09270605448</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312011</v>
+        <v>89134.17909312012</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312014</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768939</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
@@ -26447,7 +26447,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768854</v>
+        <v>9947.144321768938</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-709312.5947781659</v>
+        <v>-709312.594778166</v>
       </c>
       <c r="C6" t="n">
         <v>235800.5103781999</v>
       </c>
       <c r="D6" t="n">
-        <v>439239.2519903062</v>
+        <v>439239.2519903061</v>
       </c>
       <c r="E6" t="n">
-        <v>188709.0995523672</v>
+        <v>189021.7408812879</v>
       </c>
       <c r="F6" t="n">
-        <v>514121.5613597219</v>
+        <v>514434.2026886432</v>
       </c>
       <c r="G6" t="n">
-        <v>514121.5613597218</v>
+        <v>514434.2026886429</v>
       </c>
       <c r="H6" t="n">
-        <v>514121.5613597219</v>
+        <v>514434.2026886432</v>
       </c>
       <c r="I6" t="n">
-        <v>514121.5613597219</v>
+        <v>514434.2026886431</v>
       </c>
       <c r="J6" t="n">
-        <v>346516.3835497393</v>
+        <v>346829.0248786602</v>
       </c>
       <c r="K6" t="n">
-        <v>465011.4686536673</v>
+        <v>465324.1099825887</v>
       </c>
       <c r="L6" t="n">
-        <v>514121.5613597218</v>
+        <v>514434.2026886432</v>
       </c>
       <c r="M6" t="n">
-        <v>429066.5334242099</v>
+        <v>429379.1747531312</v>
       </c>
       <c r="N6" t="n">
-        <v>514121.5613597219</v>
+        <v>514434.202688643</v>
       </c>
       <c r="O6" t="n">
-        <v>514121.5613597218</v>
+        <v>514434.2026886429</v>
       </c>
       <c r="P6" t="n">
-        <v>514121.5613597218</v>
+        <v>514434.2026886431</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757594</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>17.58415307084528</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>141.0363684696403</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>58.55192213136691</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>137.0423662563769</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>144.9899196596983</v>
       </c>
       <c r="H5" t="n">
-        <v>235.6797139073981</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>32.28508111218879</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>239.1104512034312</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>168.0688818921489</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>153.0739764865577</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>83.32522828944184</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>69.12041821276446</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -29751,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31840,28 +31840,28 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>237.3557891543625</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>167.1165249313368</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32557,25 +32557,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215498</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>631.643643834618</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>94.75954470991805</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
